--- a/Docs/Tham khảo.xlsx
+++ b/Docs/Tham khảo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_20232\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/DATN_20232/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F25BBC-9160-4622-A321-A9487F070A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9C18AB20-41AF-4F7F-B60A-5A69167391ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D345F2-C476-417C-890A-CFAB3D33A203}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Data" sheetId="1" r:id="rId2"/>
     <sheet name="Reference" sheetId="3" r:id="rId3"/>
     <sheet name="Q&amp;A" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="185">
   <si>
     <t>Svid</t>
   </si>
@@ -613,6 +614,112 @@
   </si>
   <si>
     <t>UKF</t>
+  </si>
+  <si>
+    <t>ENU là gì?</t>
+  </si>
+  <si>
+    <t>IMU là gì ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inertial Measurement Unit ( Đơn vị đo lường quán tính) gồm accelerometer, Gyroscope, Magnenotic </t>
+  </si>
+  <si>
+    <t>27/6/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện realtime hệ thống trên điện thoại </t>
+  </si>
+  <si>
+    <t>Extended Kalman Filter — AHRS 0.3.1 documentation</t>
+  </si>
+  <si>
+    <t>Là hệ trục tọa độ east, north and up. Còn hệ NED là đảo Up ngược lại thành Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Xóa hết các cái chuyển UTM,....
+* Sử dụng hệ NED, kiếm được vài quyển sách hay 
+* Mai phải viết quyển tiếp thôi </t>
+  </si>
+  <si>
+    <t>28/6/2024</t>
+  </si>
+  <si>
+    <t>* Để thực hiện IMU không đơn giản cần nhiều kiến thức để có thể đạt được độ chính xác: sau khi tìm tòi thì có các khái niệm về quanternion, roll, pitch, yaw, cần hiệu chỉnh các dữ liệu sensor, chuyển đổi các hệ NED, ECEF, ENU (liên quan đến các ma trận xoay).
+* Thưc hiện rà soát lại các công thức của đồ án tốt nghiệp.
+* Mô tả hiểu rõ cách ứng dụng tính trung bình vận tốc và mahalanobis</t>
+  </si>
+  <si>
+    <t>Viết tiếp quyển báo cáo</t>
+  </si>
+  <si>
+    <r>
+      <t>INS (Inertial Navigation System)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hệ thống dẫn đường quán tính.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GPS (Global Positioning System)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hệ thống định vị toàn cầu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ZUPT (Zero Velocity Update)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cập nhật vận tốc bằng không.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CUPT (Coordinate Update)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Cập nhật tọa độ</t>
+    </r>
+  </si>
+  <si>
+    <t>29/6/2024</t>
+  </si>
+  <si>
+    <t>pdfcoffee.com_fundamentals-of-inertial-navigation-satellite-based-positioning-and-their-integration-2-pdf-free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bài này đọc làm IMU khá chi tiết, có hình ảnh </t>
   </si>
 </sst>
 </file>
@@ -743,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -807,6 +914,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -849,8 +963,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>10668</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>201168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -900,7 +1014,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>223154</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56102</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>132100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96E400A-3A29-7698-3D74-DC8AFC38BFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="16392794"/>
+          <a:ext cx="2273522" cy="1737746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,31 +1683,41 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>177</v>
+      </c>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,10 +1964,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,10 +2143,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1982,8 +2154,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="9" t="s">
         <v>82</v>
       </c>
@@ -2060,85 +2232,99 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="9" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>156</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>158</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>166</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2171,16 +2357,17 @@
     <hyperlink ref="C23" r:id="rId22" display="https://medium.com/@satya15july_11937/sensor-fusion-with-kalman-filter-c648d6ec2ec2" xr:uid="{2F86E7BA-5188-45B8-840F-37F5EA244674}"/>
     <hyperlink ref="C24" r:id="rId23" display="https://github.com/sharathsrini/Kalman-Filter-for-Sensor-Fusion/blob/master/Kalman_Filter.ipynb" xr:uid="{157F698F-6F4B-4700-8834-964AA0F9FA58}"/>
     <hyperlink ref="C25" r:id="rId24" xr:uid="{681AC869-21B5-4C7A-991B-7FD2CEC00048}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{C7ED0278-ADE2-4C8C-8E73-7D3FFA3FF337}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{F1AA7787-89E6-4C8D-926C-94C6A110D4A2}"/>
-    <hyperlink ref="C28" r:id="rId27" display="https://gssc.esa.int/navipedia/index.php/Transformations_between_ECEF_and_ENU_coordinates" xr:uid="{3E9E13DB-A1A3-45E6-A58D-9D352F4ECC63}"/>
-    <hyperlink ref="C29" r:id="rId28" display="https://oduerr.github.io/gesture/ypr_calculations.html" xr:uid="{BC592D91-715B-4070-A905-4B5EB8929A8D}"/>
-    <hyperlink ref="C30" r:id="rId29" display="https://att288.medium.com/accelerometer-gyroscope-magnetometer-d%C3%B9ng-%C4%91%E1%BB%83-l%C3%A0m-g%C3%AC-a7a2580705f4" xr:uid="{BE0906FA-6492-4ED2-8955-8BFAF31C61A2}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{99384BA1-D319-480B-9D34-85A6346FD20D}"/>
-    <hyperlink ref="C33" r:id="rId31" display="https://medium.com/@niru5/fusion-of-accelerometer-magnetometer-data-with-gyroscope-part-2-2887261e7245" xr:uid="{A1665D39-655F-4510-B64B-D0617BF41CD4}"/>
-    <hyperlink ref="C34" r:id="rId32" display="https://www.youtube.com/watch?v=d4EgbgTm0Bg" xr:uid="{F5C44C7C-0CAB-4452-A212-7DFD0E907FF2}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{06ABDA18-6584-4B1F-8D2B-A1BBAAABE0DB}"/>
-    <hyperlink ref="C36" r:id="rId34" display="https://github.com/niru-5/imusensor/blob/master/imusensor/filters/kalman.py" xr:uid="{F0E60F5C-5931-4C78-A736-33B2C58EDA55}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{C7ED0278-ADE2-4C8C-8E73-7D3FFA3FF337}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{F1AA7787-89E6-4C8D-926C-94C6A110D4A2}"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://gssc.esa.int/navipedia/index.php/Transformations_between_ECEF_and_ENU_coordinates" xr:uid="{3E9E13DB-A1A3-45E6-A58D-9D352F4ECC63}"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://oduerr.github.io/gesture/ypr_calculations.html" xr:uid="{BC592D91-715B-4070-A905-4B5EB8929A8D}"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://att288.medium.com/accelerometer-gyroscope-magnetometer-d%C3%B9ng-%C4%91%E1%BB%83-l%C3%A0m-g%C3%AC-a7a2580705f4" xr:uid="{BE0906FA-6492-4ED2-8955-8BFAF31C61A2}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{99384BA1-D319-480B-9D34-85A6346FD20D}"/>
+    <hyperlink ref="C34" r:id="rId31" display="https://medium.com/@niru5/fusion-of-accelerometer-magnetometer-data-with-gyroscope-part-2-2887261e7245" xr:uid="{A1665D39-655F-4510-B64B-D0617BF41CD4}"/>
+    <hyperlink ref="C35" r:id="rId32" display="https://www.youtube.com/watch?v=d4EgbgTm0Bg" xr:uid="{F5C44C7C-0CAB-4452-A212-7DFD0E907FF2}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{06ABDA18-6584-4B1F-8D2B-A1BBAAABE0DB}"/>
+    <hyperlink ref="C37" r:id="rId34" display="https://github.com/niru-5/imusensor/blob/master/imusensor/filters/kalman.py" xr:uid="{F0E60F5C-5931-4C78-A736-33B2C58EDA55}"/>
+    <hyperlink ref="C26" r:id="rId35" display="https://ahrs.readthedocs.io/en/latest/filters/ekf.html" xr:uid="{81F04FC2-2D43-4227-BCE0-F20E41319637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2188,15 +2375,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F2449-37B5-4276-8163-21E14AFF5210}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2276,19 +2463,56 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>178</v>
+      </c>
       <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2296,4 +2520,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D11BC26-7D88-4916-91CD-A67502EA1906}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/Tham khảo.xlsx
+++ b/Docs/Tham khảo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/600d64f34c8f77ee/Desktop/DATN_20232/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9C18AB20-41AF-4F7F-B60A-5A69167391ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D345F2-C476-417C-890A-CFAB3D33A203}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{9C18AB20-41AF-4F7F-B60A-5A69167391ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF8C2119-002A-4FD0-B474-F82AAAA94C95}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="447" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="447" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Tracking" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="201">
   <si>
     <t>Svid</t>
   </si>
@@ -94,20 +94,6 @@
   </si>
   <si>
     <t>Chủ nhật,7/4/2024</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu</t>
-  </si>
-  <si>
-    <t>Thứ bảy,13/4/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deadline </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Tìm hiểu  GNSS
-- Vẽ và trình bày kiến trúc GNSS
-- Các trường dữ liệu của google cấp </t>
   </si>
   <si>
     <t>STT</t>
@@ -368,9 +354,6 @@
   </si>
   <si>
     <t>19/4</t>
-  </si>
-  <si>
-    <t>Đã làm được</t>
   </si>
   <si>
     <t>Mong muốn</t>
@@ -721,15 +704,95 @@
   <si>
     <t xml:space="preserve">Bài này đọc làm IMU khá chi tiết, có hình ảnh </t>
   </si>
+  <si>
+    <t>Cần phải servey: đưaa ra tiêu chí so sánh với những cái trước 
+đặt vấn đề
+servey
+triển khai hệ thống
+thực nghiệm
+- K cần trình bày kn cơ bản xs
+- Cần trình bày input, output, đánh giá kalman đúng và tốt: thường là tốt (sai số RMSE độ chính xác, MSA)
+- Thống kê: Những người cũng đang làm, servey
+- Triển khai: 
+- Đánh giá:
+Viết sao để làm lại được code
+Chú thích đúng, ref đúng
+Kết quả ít nhất 10 nghìn điểm(Mô tả tập dữ liệu thực nghiệm, như nào là mẫu đúng, thể hiện kết quả bằng phân bổ xác suất, con số thống kê)
+- mô tả thực nghiệm: in,out</t>
+  </si>
+  <si>
+    <t>Họp với thầy chỉnh sửa</t>
+  </si>
+  <si>
+    <t>* Check sơ đồ luồng dữ liệu sai, cần vẽ lại hình 
+* Sử dụng hình chữ nhật mô tả xử lí, hình oval tròn để mô tả data
+* Check sơ đồ thuật toán, cần vẽ lại hình , mô tả kí tự của sơ đồ sai phần vòng lặp.</t>
+  </si>
+  <si>
+    <t>* Đã chỉnh sửa sơ đồ thuật toán, thêm các phương trình vào sơ đồ thuật toán cho dễ hiểu, 
+* Sơ đồ luồng dữ liệu cần bổ sung kí hiệu</t>
+  </si>
+  <si>
+    <t>* cô duyệt đồ án cho điểm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Thầy duyệt đồ án </t>
+  </si>
+  <si>
+    <t>https://www.google.com/url?sa=t&amp;rct=j&amp;q=&amp;esrc=s&amp;source=web&amp;cd=&amp;cad=rja&amp;uact=8&amp;ved=2ahUKEwiqh8OnkpWHAxWL5TQHHbqNDjAQFnoECBMQAQ&amp;url=https%3A%2F%2Fhowthingsfly.si.edu%2Fflight-dynamics%2Froll-pitch-and-yaw&amp;usg=AOvVaw1mqJmepAv-sy5APdDrkgXw&amp;opi=89978449</t>
+  </si>
+  <si>
+    <t>Làm slide</t>
+  </si>
+  <si>
+    <t>Check day</t>
+  </si>
+  <si>
+    <t>13/7/2024</t>
+  </si>
+  <si>
+    <t>14/7/2024</t>
+  </si>
+  <si>
+    <t>15/7/2024</t>
+  </si>
+  <si>
+    <t>16/7/2024</t>
+  </si>
+  <si>
+    <t>17/7/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Bảo vệ </t>
+  </si>
+  <si>
+    <t>Đang ở đây</t>
+  </si>
+  <si>
+    <t>* đã nộp đồ án
+* Đọc báo cáo đến chương 2
+* Tìm hiểu sâu về mahalanobis</t>
+  </si>
+  <si>
+    <t>phải xong slide</t>
+  </si>
+  <si>
+    <t>* làm slide</t>
+  </si>
+  <si>
+    <t>* làm slide: lên nội dung trình bày còn thấy phần mở đầu dài , nhiều chữ, phần cơ sử lý thuyết và thiết kế, triển khai nhiều chữ khó hiểu.
+* Kết quả chưa biết cách mô tả kết quả.</t>
+  </si>
+  <si>
+    <t>* Làm slide chung: cần tập chung giải thích phần của mình
+* Đánh giá hiểu kết quả</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-101042A]d\ mmmm\ yyyy;@"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +844,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +863,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0E6F5"/>
         <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -850,15 +926,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -921,6 +994,8 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -955,14 +1030,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>556260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>201168</xdr:rowOff>
     </xdr:to>
@@ -1016,14 +1091,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>223154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>56102</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>322802</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>132100</xdr:rowOff>
     </xdr:to>
@@ -1059,10 +1134,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1328,411 +1399,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B748F3E8-36F5-458D-BECB-389A017E0949}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="62.140625" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" customWidth="1"/>
+    <col min="3" max="3" width="78.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="73.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>45569</v>
+      </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="15">
-        <v>45569</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="C3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>45600</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="15">
-        <v>45600</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+    <row r="13" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>45602</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>45632</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="15">
-        <v>45602</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15">
-        <v>45632</v>
-      </c>
-      <c r="D14" s="8" t="s">
+    <row r="16" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E17" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="B22" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="B30" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="25" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
+      <c r="B31" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="14">
+        <v>45298</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>45329</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="14">
+        <v>45358</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D31" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="14">
+        <v>45389</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14">
+        <v>45419</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="14">
+        <v>45450</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="14">
+        <v>45480</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="14">
+        <v>45511</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="14">
+        <v>45542</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="14">
+        <v>45572</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="14">
+        <v>45603</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>45633</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="12"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="12"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="12"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="12"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="12"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" display="https://thesaigontimes.vn/lam-quen-voi-he-thong-thong-tin-ve-tinh/" xr:uid="{C30495B8-B81C-4BA7-AAEE-8B6D54A5A0E9}"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://thesaigontimes.vn/lam-quen-voi-he-thong-thong-tin-ve-tinh/" xr:uid="{C30495B8-B81C-4BA7-AAEE-8B6D54A5A0E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1747,28 +1920,28 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" customWidth="1"/>
-    <col min="9" max="9" width="40.28515625" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="38.28515625" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" customWidth="1"/>
-    <col min="15" max="15" width="31.5703125" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" customWidth="1"/>
-    <col min="17" max="17" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" customWidth="1"/>
+    <col min="9" max="9" width="40.33203125" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="11" width="27.33203125" customWidth="1"/>
+    <col min="12" max="12" width="38.33203125" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="31.5546875" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" customWidth="1"/>
+    <col min="17" max="17" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1818,130 +1991,130 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:17" s="11" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="Q2" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>68</v>
+      <c r="E4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1964,367 +2137,372 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630E1875-308F-44FC-8375-E26300BBEACC}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" customWidth="1"/>
-    <col min="3" max="3" width="115.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="115.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="17">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="8" t="s">
+    <row r="9" spans="1:3" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
+    <row r="10" spans="1:3" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C10" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C11" s="19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="9" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+        <v>85</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+        <v>117</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="C22" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="C23" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="C24" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
       <c r="C26" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C42" t="s">
-        <v>183</v>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2361,12 +2539,12 @@
     <hyperlink ref="C28" r:id="rId26" xr:uid="{F1AA7787-89E6-4C8D-926C-94C6A110D4A2}"/>
     <hyperlink ref="C29" r:id="rId27" display="https://gssc.esa.int/navipedia/index.php/Transformations_between_ECEF_and_ENU_coordinates" xr:uid="{3E9E13DB-A1A3-45E6-A58D-9D352F4ECC63}"/>
     <hyperlink ref="C30" r:id="rId28" display="https://oduerr.github.io/gesture/ypr_calculations.html" xr:uid="{BC592D91-715B-4070-A905-4B5EB8929A8D}"/>
-    <hyperlink ref="C31" r:id="rId29" display="https://att288.medium.com/accelerometer-gyroscope-magnetometer-d%C3%B9ng-%C4%91%E1%BB%83-l%C3%A0m-g%C3%AC-a7a2580705f4" xr:uid="{BE0906FA-6492-4ED2-8955-8BFAF31C61A2}"/>
-    <hyperlink ref="C32" r:id="rId30" xr:uid="{99384BA1-D319-480B-9D34-85A6346FD20D}"/>
-    <hyperlink ref="C34" r:id="rId31" display="https://medium.com/@niru5/fusion-of-accelerometer-magnetometer-data-with-gyroscope-part-2-2887261e7245" xr:uid="{A1665D39-655F-4510-B64B-D0617BF41CD4}"/>
-    <hyperlink ref="C35" r:id="rId32" display="https://www.youtube.com/watch?v=d4EgbgTm0Bg" xr:uid="{F5C44C7C-0CAB-4452-A212-7DFD0E907FF2}"/>
-    <hyperlink ref="C36" r:id="rId33" xr:uid="{06ABDA18-6584-4B1F-8D2B-A1BBAAABE0DB}"/>
-    <hyperlink ref="C37" r:id="rId34" display="https://github.com/niru-5/imusensor/blob/master/imusensor/filters/kalman.py" xr:uid="{F0E60F5C-5931-4C78-A736-33B2C58EDA55}"/>
+    <hyperlink ref="C32" r:id="rId29" display="https://att288.medium.com/accelerometer-gyroscope-magnetometer-d%C3%B9ng-%C4%91%E1%BB%83-l%C3%A0m-g%C3%AC-a7a2580705f4" xr:uid="{BE0906FA-6492-4ED2-8955-8BFAF31C61A2}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{99384BA1-D319-480B-9D34-85A6346FD20D}"/>
+    <hyperlink ref="C35" r:id="rId31" display="https://medium.com/@niru5/fusion-of-accelerometer-magnetometer-data-with-gyroscope-part-2-2887261e7245" xr:uid="{A1665D39-655F-4510-B64B-D0617BF41CD4}"/>
+    <hyperlink ref="C36" r:id="rId32" display="https://www.youtube.com/watch?v=d4EgbgTm0Bg" xr:uid="{F5C44C7C-0CAB-4452-A212-7DFD0E907FF2}"/>
+    <hyperlink ref="C37" r:id="rId33" xr:uid="{06ABDA18-6584-4B1F-8D2B-A1BBAAABE0DB}"/>
+    <hyperlink ref="C38" r:id="rId34" display="https://github.com/niru-5/imusensor/blob/master/imusensor/filters/kalman.py" xr:uid="{F0E60F5C-5931-4C78-A736-33B2C58EDA55}"/>
     <hyperlink ref="C26" r:id="rId35" display="https://ahrs.readthedocs.io/en/latest/filters/ekf.html" xr:uid="{81F04FC2-2D43-4227-BCE0-F20E41319637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2381,136 +2559,136 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
     <col min="3" max="3" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="405" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>178</v>
+      <c r="B10" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="27" t="s">
-        <v>179</v>
+      <c r="B11" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="27" t="s">
-        <v>180</v>
+      <c r="B12" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="27" t="s">
-        <v>181</v>
+      <c r="B13" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -2528,7 +2706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
